--- a/my_code/excel files/coords_and_distance .xlsx
+++ b/my_code/excel files/coords_and_distance .xlsx
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>56.4</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="116">
@@ -3177,7 +3177,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>60.8</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="186">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>51.4</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="187">
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>61.9</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="188">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>92.59999999999999</v>
+        <v>92</v>
       </c>
     </row>
     <row r="189">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="191">
@@ -3297,7 +3297,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>93.40000000000001</v>
+        <v>92.8</v>
       </c>
     </row>
     <row r="192">
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>97.3</v>
+        <v>96.59999999999999</v>
       </c>
     </row>
     <row r="267">
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>47.5</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="268">
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>36</v>
+        <v>35.2</v>
       </c>
     </row>
     <row r="269">
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>31.7</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="270">
@@ -4497,7 +4497,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>98</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="272">
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>63.5</v>
+        <v>62.7</v>
       </c>
     </row>
     <row r="273">
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>99.7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="274">
@@ -4542,7 +4542,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>45.3</v>
+        <v>44.6</v>
       </c>
     </row>
     <row r="275">
@@ -4557,7 +4557,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>64.2</v>
+        <v>63.5</v>
       </c>
     </row>
     <row r="276">
@@ -4587,7 +4587,7 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>64.5</v>
+        <v>63.7</v>
       </c>
     </row>
     <row r="278">
@@ -5907,7 +5907,7 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>28.3</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="366">
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>74.3</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="425">
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="426">
@@ -6822,7 +6822,7 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>88.5</v>
+        <v>88.40000000000001</v>
       </c>
     </row>
     <row r="427">
@@ -6897,7 +6897,7 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="432">
